--- a/4 четверть_2_HTML_CSS_препроцессоры - scss.xlsx
+++ b/4 четверть_2_HTML_CSS_препроцессоры - scss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED5326-4D4E-4A8D-97BA-E3B42A7795AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3646E6E-D4BD-4F82-9CCD-D4519B9F9E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2592,7 +2592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2653,6 +2653,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3753,7 +3756,7 @@
   <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3854,7 +3857,7 @@
       <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
